--- a/nodes_source_analyses/energy/industry/industry_chemicals_other_heatpump_water_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/industry/industry_chemicals_other_heatpump_water_water_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96816C0-3069-B047-A33C-2AB525A2AE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0E5091-CB2A-AF44-AD03-A69C75924961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13960" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25420" windowHeight="17500" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -51,7 +51,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -557,11 +560,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -1656,7 +1659,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1714,7 +1717,7 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1774,7 +1777,7 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1793,7 +1796,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1807,17 +1810,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1826,7 +1829,7 @@
     <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1848,14 +1851,14 @@
     <xf numFmtId="9" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1865,10 +1868,10 @@
     </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1899,7 +1902,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1907,7 +1910,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="13" borderId="21" xfId="484"/>
     <xf numFmtId="2" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="40" fillId="13" borderId="21" xfId="484" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="40" fillId="13" borderId="21" xfId="484" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1938,20 +1941,20 @@
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1979,7 +1982,6 @@
     <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="485">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3498,8 +3500,8 @@
   </sheetPr>
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -3645,7 +3647,7 @@
     <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="26"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="200" t="s">
+      <c r="C13" s="199" t="s">
         <v>133</v>
       </c>
       <c r="D13" s="21"/>
@@ -3665,11 +3667,11 @@
     <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="200" t="s">
+      <c r="C14" s="199" t="s">
         <v>134</v>
       </c>
       <c r="D14" s="21"/>
-      <c r="E14" s="199">
+      <c r="E14" s="198">
         <f>'Research data'!H10</f>
         <v>0.26315789473684209</v>
       </c>
@@ -3708,7 +3710,7 @@
     <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="A16" s="108"/>
       <c r="B16" s="109"/>
-      <c r="C16" s="200" t="s">
+      <c r="C16" s="199" t="s">
         <v>135</v>
       </c>
       <c r="D16" s="23"/>
@@ -3969,7 +3971,7 @@
         <v>62</v>
       </c>
       <c r="H29" s="105"/>
-      <c r="I29" s="212" t="s">
+      <c r="I29" s="202" t="s">
         <v>138</v>
       </c>
       <c r="J29" s="111"/>
@@ -4107,7 +4109,7 @@
     <row r="37" spans="1:10" ht="17" thickBot="1">
       <c r="A37" s="108"/>
       <c r="B37" s="109"/>
-      <c r="C37" s="200" t="s">
+      <c r="C37" s="199" t="s">
         <v>57</v>
       </c>
       <c r="D37" s="23"/>
@@ -4126,7 +4128,7 @@
     <row r="38" spans="1:10" ht="17" thickBot="1">
       <c r="A38" s="108"/>
       <c r="B38" s="109"/>
-      <c r="C38" s="200" t="s">
+      <c r="C38" s="199" t="s">
         <v>136</v>
       </c>
       <c r="D38" s="23"/>
@@ -4145,7 +4147,7 @@
     <row r="39" spans="1:10">
       <c r="A39" s="108"/>
       <c r="B39" s="109"/>
-      <c r="C39" s="200"/>
+      <c r="C39" s="199"/>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
@@ -4158,11 +4160,11 @@
       <c r="A40" s="108"/>
       <c r="B40" s="116"/>
       <c r="C40" s="117"/>
-      <c r="D40" s="201"/>
+      <c r="D40" s="200"/>
       <c r="E40" s="191"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="202"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
       <c r="I40" s="192"/>
       <c r="J40" s="118"/>
     </row>
